--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/BrokenMarkets/1CraftbetVolleyballDataErrorMarketsList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/BrokenMarkets/1CraftbetVolleyballDataErrorMarketsList.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>This market works for Client  GameID = 3724087  MarketName =  Set Betting</t>
-  </si>
-  <si>
-    <t>This market works for Client  GameID = 3724088  MarketName =  Set Betting</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>This market works for Client  GameID = 3724288  MarketName =  Set Betting</t>
   </si>
   <si>
     <t>This market works for Client  GameID = 3724302  MarketName =  Set Betting</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3739547  MarketName =  Set Betting</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741730  MarketName =  Set Betting</t>
   </si>
   <si>
     <t>3727450  This game has no available Markets</t>
@@ -32,7 +32,22 @@
     <t>3727454  This game has no available Markets</t>
   </si>
   <si>
-    <t>This market works for Client  GameID = 3724554  MarketName =  Set Betting</t>
+    <t>3741401  This game has no available Markets</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740477  MarketName =  Set Betting</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3740478  MarketName =  Set Betting</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741306  MarketName = 1 Set Sta. Elena Construction Winning Margin</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741306  MarketName = 1 Set Philippines Navy Winning Margin</t>
+  </si>
+  <si>
+    <t>This market works for Client  GameID = 3741323  MarketName =  Set Betting</t>
   </si>
 </sst>
 </file>
@@ -77,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -121,6 +136,31 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
